--- a/ExcelFiles/Sairyu.xlsx
+++ b/ExcelFiles/Sairyu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hihum\Dropbox\zCodeLinuxTorikumi\zRinshoExcels\Sairyu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32316F0-32CC-4449-AEBB-3F54D7346C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F1865C-0491-457B-B8BA-801FD75AA008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -434,7 +434,7 @@
   <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -451,15 +451,13 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>20</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1">
         <f>C2*10</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -469,9 +467,7 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
-        <v>3.75</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
@@ -482,7 +478,7 @@
       </c>
       <c r="C5" s="4">
         <f>C3*1000*C2/100</f>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
